--- a/data_year/zb/文化/艺术表演场馆基本情况/艺术表演场馆观众人次.xlsx
+++ b/data_year/zb/文化/艺术表演场馆基本情况/艺术表演场馆观众人次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,750 +528,693 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="C2" t="n">
-        <v>264</v>
+        <v>970</v>
       </c>
       <c r="D2" t="n">
-        <v>1900</v>
+        <v>4500</v>
       </c>
       <c r="E2" t="n">
-        <v>46225</v>
+        <v>42791</v>
       </c>
       <c r="F2" t="n">
-        <v>71682</v>
+        <v>39843</v>
       </c>
       <c r="G2" t="n">
-        <v>56153</v>
+        <v>72699</v>
       </c>
       <c r="H2" t="n">
-        <v>83453</v>
+        <v>95680</v>
       </c>
       <c r="I2" t="n">
-        <v>54128</v>
+        <v>35231</v>
       </c>
       <c r="J2" t="n">
-        <v>39852</v>
+        <v>61846</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>81218</v>
+        <v>89928</v>
       </c>
       <c r="N2" t="n">
-        <v>1526</v>
+        <v>1979</v>
       </c>
       <c r="O2" t="n">
-        <v>16922</v>
+        <v>24499</v>
       </c>
       <c r="P2" t="n">
-        <v>10482</v>
+        <v>19775</v>
       </c>
       <c r="Q2" t="n">
-        <v>127443</v>
+        <v>132719</v>
       </c>
       <c r="R2" t="n">
-        <v>2871</v>
+        <v>2977</v>
       </c>
       <c r="S2" t="n">
-        <v>1737</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303</v>
+        <v>417.48</v>
       </c>
       <c r="C3" t="n">
-        <v>1145</v>
+        <v>998.42</v>
       </c>
       <c r="D3" t="n">
-        <v>7813</v>
+        <v>2972.43</v>
       </c>
       <c r="E3" t="n">
-        <v>48267</v>
+        <v>39818.46</v>
       </c>
       <c r="F3" t="n">
-        <v>38840</v>
+        <v>41415.68</v>
       </c>
       <c r="G3" t="n">
-        <v>72456</v>
+        <v>56101.19</v>
       </c>
       <c r="H3" t="n">
-        <v>81670</v>
+        <v>68753.22</v>
       </c>
       <c r="I3" t="n">
-        <v>30374</v>
+        <v>31222.45</v>
       </c>
       <c r="J3" t="n">
-        <v>56560</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>45593.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>42287.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>66800.73</v>
+      </c>
       <c r="M3" t="n">
-        <v>74926</v>
+        <v>69269.87</v>
       </c>
       <c r="N3" t="n">
-        <v>1829</v>
+        <v>2099.56</v>
       </c>
       <c r="O3" t="n">
-        <v>20060</v>
+        <v>21347.21</v>
       </c>
       <c r="P3" t="n">
-        <v>14448</v>
+        <v>13460.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>123193</v>
+        <v>109088.33</v>
       </c>
       <c r="R3" t="n">
-        <v>6153</v>
+        <v>1080.92</v>
       </c>
       <c r="S3" t="n">
-        <v>2558</v>
+        <v>2548.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290</v>
+        <v>393.67</v>
       </c>
       <c r="C4" t="n">
-        <v>970</v>
+        <v>1080.65</v>
       </c>
       <c r="D4" t="n">
-        <v>4500</v>
+        <v>4404.32</v>
       </c>
       <c r="E4" t="n">
-        <v>42791</v>
+        <v>125047.09</v>
       </c>
       <c r="F4" t="n">
-        <v>39843</v>
+        <v>70572.32000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>72699</v>
+        <v>133359.83</v>
       </c>
       <c r="H4" t="n">
-        <v>95680</v>
+        <v>110629.27</v>
       </c>
       <c r="I4" t="n">
-        <v>35231</v>
+        <v>39766.51</v>
       </c>
       <c r="J4" t="n">
-        <v>61846</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>53627.99</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37893.97</v>
+      </c>
+      <c r="L4" t="n">
+        <v>148150.11</v>
+      </c>
       <c r="M4" t="n">
-        <v>89928</v>
+        <v>60997.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1979</v>
+        <v>657.0700000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>24499</v>
+        <v>12524.05</v>
       </c>
       <c r="P4" t="n">
-        <v>19775</v>
+        <v>53834.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>132719</v>
+        <v>186044.08</v>
       </c>
       <c r="R4" t="n">
-        <v>2977</v>
+        <v>699.58</v>
       </c>
       <c r="S4" t="n">
-        <v>3806</v>
+        <v>1867.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>417.48</v>
+        <v>431.87</v>
       </c>
       <c r="C5" t="n">
-        <v>998.42</v>
+        <v>127.6</v>
       </c>
       <c r="D5" t="n">
-        <v>2972.43</v>
-      </c>
-      <c r="E5" t="n">
-        <v>39818.46</v>
-      </c>
+        <v>826.54</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>41415.68</v>
+        <v>23324.37</v>
       </c>
       <c r="G5" t="n">
-        <v>56101.19</v>
+        <v>37808.3</v>
       </c>
       <c r="H5" t="n">
-        <v>68753.22</v>
+        <v>56177.48</v>
       </c>
       <c r="I5" t="n">
-        <v>31222.45</v>
+        <v>28291.42</v>
       </c>
       <c r="J5" t="n">
-        <v>45593.6</v>
+        <v>41098.52</v>
       </c>
       <c r="K5" t="n">
-        <v>42287.6</v>
+        <v>34890</v>
       </c>
       <c r="L5" t="n">
-        <v>66800.73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>69269.87</v>
-      </c>
+        <v>42870</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2099.56</v>
+        <v>85</v>
       </c>
       <c r="O5" t="n">
-        <v>21347.21</v>
+        <v>11231.9</v>
       </c>
       <c r="P5" t="n">
-        <v>13460.5</v>
+        <v>10646.54</v>
       </c>
       <c r="Q5" t="n">
-        <v>109088.33</v>
+        <v>77763.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1080.92</v>
+        <v>641.1799999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>2548.15</v>
+        <v>1654.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393.67</v>
+        <v>563.54</v>
       </c>
       <c r="C6" t="n">
-        <v>1080.65</v>
+        <v>153.64</v>
       </c>
       <c r="D6" t="n">
-        <v>4404.32</v>
-      </c>
-      <c r="E6" t="n">
-        <v>125047.09</v>
-      </c>
+        <v>572.98</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>70572.32000000001</v>
+        <v>23316.21</v>
       </c>
       <c r="G6" t="n">
-        <v>133359.83</v>
+        <v>32116.44</v>
       </c>
       <c r="H6" t="n">
-        <v>110629.27</v>
+        <v>53264.91</v>
       </c>
       <c r="I6" t="n">
-        <v>39766.51</v>
+        <v>24740.3</v>
       </c>
       <c r="J6" t="n">
-        <v>53627.99</v>
+        <v>34132.62</v>
       </c>
       <c r="K6" t="n">
-        <v>37893.97</v>
+        <v>31502.79</v>
       </c>
       <c r="L6" t="n">
-        <v>148150.11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>60997.02</v>
-      </c>
+        <v>36940.71</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>657.0700000000001</v>
+        <v>87.5</v>
       </c>
       <c r="O6" t="n">
-        <v>12524.05</v>
+        <v>11023.22</v>
       </c>
       <c r="P6" t="n">
-        <v>53834.05</v>
+        <v>8683.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>186044.08</v>
+        <v>68443.5</v>
       </c>
       <c r="R6" t="n">
-        <v>699.58</v>
+        <v>659.84</v>
       </c>
       <c r="S6" t="n">
-        <v>1867.71</v>
+        <v>1497.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431.87</v>
+        <v>398.9</v>
       </c>
       <c r="C7" t="n">
-        <v>127.6</v>
+        <v>1477.57</v>
       </c>
       <c r="D7" t="n">
-        <v>826.54</v>
+        <v>5817.37</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>23324.37</v>
+        <v>41440.29</v>
       </c>
       <c r="G7" t="n">
-        <v>37808.3</v>
+        <v>66188.67999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>56177.48</v>
+        <v>59227.4</v>
       </c>
       <c r="I7" t="n">
-        <v>28291.42</v>
+        <v>28457.93</v>
       </c>
       <c r="J7" t="n">
-        <v>41098.52</v>
+        <v>36712.34</v>
       </c>
       <c r="K7" t="n">
-        <v>34890</v>
+        <v>37566.78</v>
       </c>
       <c r="L7" t="n">
-        <v>42870</v>
+        <v>70187.42999999999</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>85</v>
+        <v>953.02</v>
       </c>
       <c r="O7" t="n">
-        <v>11231.9</v>
+        <v>12708.7</v>
       </c>
       <c r="P7" t="n">
-        <v>10646.54</v>
+        <v>19126.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>77763.47</v>
+        <v>107754.21</v>
       </c>
       <c r="R7" t="n">
-        <v>641.1799999999999</v>
+        <v>730.71</v>
       </c>
       <c r="S7" t="n">
-        <v>1654.91</v>
+        <v>2226.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>563.54</v>
+        <v>588.48</v>
       </c>
       <c r="C8" t="n">
-        <v>153.64</v>
+        <v>420.28</v>
       </c>
       <c r="D8" t="n">
-        <v>572.98</v>
+        <v>7838.87</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>23316.21</v>
+        <v>61899.2</v>
       </c>
       <c r="G8" t="n">
-        <v>32116.44</v>
+        <v>81227.92999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>53264.91</v>
+        <v>64866.85</v>
       </c>
       <c r="I8" t="n">
-        <v>24740.3</v>
+        <v>34644.43</v>
       </c>
       <c r="J8" t="n">
-        <v>34132.62</v>
+        <v>32203.39</v>
       </c>
       <c r="K8" t="n">
-        <v>31502.79</v>
+        <v>35327.42</v>
       </c>
       <c r="L8" t="n">
-        <v>36940.71</v>
+        <v>93508.66</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>87.5</v>
+        <v>514.52</v>
       </c>
       <c r="O8" t="n">
-        <v>11023.22</v>
+        <v>12375.24</v>
       </c>
       <c r="P8" t="n">
-        <v>8683.15</v>
+        <v>22990.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>68443.5</v>
+        <v>128836.08</v>
       </c>
       <c r="R8" t="n">
-        <v>659.84</v>
+        <v>498.47</v>
       </c>
       <c r="S8" t="n">
-        <v>1497.42</v>
+        <v>2969.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>398.9</v>
+        <v>863.95</v>
       </c>
       <c r="C9" t="n">
-        <v>1477.57</v>
+        <v>510.5</v>
       </c>
       <c r="D9" t="n">
-        <v>5817.37</v>
+        <v>10420.7</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>41440.29</v>
+        <v>62526.25</v>
       </c>
       <c r="G9" t="n">
-        <v>66188.67999999999</v>
+        <v>97420.19</v>
       </c>
       <c r="H9" t="n">
-        <v>59227.4</v>
+        <v>52225.87</v>
       </c>
       <c r="I9" t="n">
-        <v>28457.93</v>
+        <v>22916.4</v>
       </c>
       <c r="J9" t="n">
-        <v>36712.34</v>
+        <v>33667.28</v>
       </c>
       <c r="K9" t="n">
-        <v>37566.78</v>
+        <v>35086.05</v>
       </c>
       <c r="L9" t="n">
-        <v>70187.42999999999</v>
+        <v>99451.91</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>953.02</v>
+        <v>1146.19</v>
       </c>
       <c r="O9" t="n">
-        <v>12708.7</v>
+        <v>13337.42</v>
       </c>
       <c r="P9" t="n">
-        <v>19126.65</v>
+        <v>22562.11</v>
       </c>
       <c r="Q9" t="n">
-        <v>107754.21</v>
+        <v>134537.96</v>
       </c>
       <c r="R9" t="n">
-        <v>730.71</v>
+        <v>528.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2226.97</v>
+        <v>3704.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.48</v>
+        <v>880</v>
       </c>
       <c r="C10" t="n">
-        <v>420.28</v>
+        <v>650</v>
       </c>
       <c r="D10" t="n">
-        <v>7838.87</v>
+        <v>8100</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>61899.2</v>
+        <v>71290</v>
       </c>
       <c r="G10" t="n">
-        <v>81227.92999999999</v>
+        <v>110430</v>
       </c>
       <c r="H10" t="n">
-        <v>64866.85</v>
+        <v>50110</v>
       </c>
       <c r="I10" t="n">
-        <v>34644.43</v>
+        <v>17980</v>
       </c>
       <c r="J10" t="n">
-        <v>32203.39</v>
+        <v>33650</v>
       </c>
       <c r="K10" t="n">
-        <v>35327.42</v>
+        <v>35920</v>
       </c>
       <c r="L10" t="n">
-        <v>93508.66</v>
+        <v>105010</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>514.52</v>
+        <v>3150</v>
       </c>
       <c r="O10" t="n">
-        <v>12375.24</v>
+        <v>11630</v>
       </c>
       <c r="P10" t="n">
-        <v>22990.5</v>
+        <v>21150</v>
       </c>
       <c r="Q10" t="n">
-        <v>128836.08</v>
+        <v>140930</v>
       </c>
       <c r="R10" t="n">
-        <v>498.47</v>
+        <v>510</v>
       </c>
       <c r="S10" t="n">
-        <v>2969.32</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>863.95</v>
+        <v>840</v>
       </c>
       <c r="C11" t="n">
-        <v>510.5</v>
+        <v>1820</v>
       </c>
       <c r="D11" t="n">
-        <v>10420.7</v>
+        <v>11560</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>62526.25</v>
+        <v>50060</v>
       </c>
       <c r="G11" t="n">
-        <v>97420.19</v>
+        <v>93730</v>
       </c>
       <c r="H11" t="n">
-        <v>52225.87</v>
+        <v>46050</v>
       </c>
       <c r="I11" t="n">
-        <v>22916.4</v>
+        <v>18700</v>
       </c>
       <c r="J11" t="n">
-        <v>33667.28</v>
+        <v>35480</v>
       </c>
       <c r="K11" t="n">
-        <v>35086.05</v>
+        <v>31547.96</v>
       </c>
       <c r="L11" t="n">
-        <v>99451.91</v>
+        <v>94062.03999999999</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1146.19</v>
+        <v>2130</v>
       </c>
       <c r="O11" t="n">
-        <v>13337.42</v>
+        <v>12350</v>
       </c>
       <c r="P11" t="n">
-        <v>22562.11</v>
+        <v>20560</v>
       </c>
       <c r="Q11" t="n">
-        <v>134537.96</v>
+        <v>125610</v>
       </c>
       <c r="R11" t="n">
-        <v>528.55</v>
+        <v>500</v>
       </c>
       <c r="S11" t="n">
-        <v>3704.94</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>880</v>
+        <v>202.8</v>
       </c>
       <c r="C12" t="n">
-        <v>650</v>
+        <v>587.6</v>
       </c>
       <c r="D12" t="n">
-        <v>8100</v>
+        <v>5871.3</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>71290</v>
+        <v>26729.2</v>
       </c>
       <c r="G12" t="n">
-        <v>110430</v>
+        <v>49771.3</v>
       </c>
       <c r="H12" t="n">
-        <v>50110</v>
+        <v>17859.9</v>
       </c>
       <c r="I12" t="n">
-        <v>17980</v>
+        <v>6374</v>
       </c>
       <c r="J12" t="n">
-        <v>33650</v>
+        <v>14052.3</v>
       </c>
       <c r="K12" t="n">
-        <v>35920</v>
+        <v>12606.2</v>
       </c>
       <c r="L12" t="n">
-        <v>105010</v>
+        <v>48040.5</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>3150</v>
+        <v>3281.4</v>
       </c>
       <c r="O12" t="n">
-        <v>11630</v>
+        <v>4298.6</v>
       </c>
       <c r="P12" t="n">
-        <v>21150</v>
+        <v>7790.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>140930</v>
+        <v>60646.7</v>
       </c>
       <c r="R12" t="n">
-        <v>510</v>
+        <v>228.2</v>
       </c>
       <c r="S12" t="n">
-        <v>2940</v>
+        <v>2334.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840</v>
+        <v>391.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1820</v>
+        <v>821.8</v>
       </c>
       <c r="D13" t="n">
-        <v>11560</v>
+        <v>10559.9</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>50060</v>
+        <v>58979</v>
       </c>
       <c r="G13" t="n">
-        <v>93730</v>
+        <v>93318.60000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>46050</v>
+        <v>28528.5</v>
       </c>
       <c r="I13" t="n">
-        <v>18700</v>
+        <v>9824.200000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>35480</v>
+        <v>21947</v>
       </c>
       <c r="K13" t="n">
-        <v>31547.96</v>
+        <v>36242.4</v>
       </c>
       <c r="L13" t="n">
-        <v>94062.03999999999</v>
+        <v>75850</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>2130</v>
+        <v>1503.9</v>
       </c>
       <c r="O13" t="n">
-        <v>12350</v>
+        <v>8558.1</v>
       </c>
       <c r="P13" t="n">
-        <v>20560</v>
+        <v>14195.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>125610</v>
+        <v>112092.4</v>
       </c>
       <c r="R13" t="n">
-        <v>500</v>
+        <v>214.4</v>
       </c>
       <c r="S13" t="n">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>587.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5871.3</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>26729.2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>49771.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17859.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14052.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12606.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>48040.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>3281.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4298.6</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7790.7</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>60646.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>228.2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2334.4</v>
+        <v>4085.2</v>
       </c>
     </row>
   </sheetData>
